--- a/Source profile wood species.xlsx
+++ b/Source profile wood species.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinis\Desktop\School\Internship 2017\VBA code\SmogTest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="7455"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="14112" windowHeight="7452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1369,7 +1375,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1902,48 +1908,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1951,12 +1957,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1998,7 +2007,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2031,9 +2040,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2066,6 +2092,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2241,34 +2284,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2300,7 +2344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2335,7 +2379,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2370,7 +2414,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2405,17 +2449,17 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2423,7 +2467,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2431,7 +2475,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2457,7 +2501,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2489,7 +2533,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2521,7 +2565,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2553,7 +2597,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2585,7 +2629,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2617,7 +2661,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2643,7 +2687,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2660,7 +2704,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2674,7 +2718,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2682,52 +2726,52 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2744,7 +2788,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2779,7 +2823,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -2811,7 +2855,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2846,7 +2890,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2875,7 +2919,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -2907,7 +2951,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -2942,7 +2986,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -2965,7 +3009,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -2994,7 +3038,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -3002,7 +3046,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -3013,82 +3057,82 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="21" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="21" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -3099,7 +3143,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>41</v>
       </c>
@@ -3119,7 +3163,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -3142,7 +3186,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>43</v>
       </c>
@@ -3171,57 +3215,57 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="22" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="22" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="22" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="22" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="22" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>44</v>
       </c>
@@ -3232,7 +3276,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>46</v>
       </c>
@@ -3258,7 +3302,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>50</v>
       </c>
@@ -3287,7 +3331,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -3316,7 +3360,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -3342,7 +3386,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>48</v>
       </c>
@@ -3356,7 +3400,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>49</v>
       </c>
@@ -3364,7 +3408,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>45</v>
       </c>
@@ -3372,22 +3416,22 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>61</v>
       </c>
@@ -3395,12 +3439,12 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="22" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>62</v>
       </c>
@@ -3408,7 +3452,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -3434,7 +3478,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>55</v>
       </c>
@@ -3466,7 +3510,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>56</v>
       </c>
@@ -3501,7 +3545,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>63</v>
       </c>
@@ -3533,7 +3577,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>64</v>
       </c>
@@ -3568,7 +3612,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>65</v>
       </c>
@@ -3603,7 +3647,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>66</v>
       </c>
@@ -3623,7 +3667,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>67</v>
       </c>
@@ -3658,7 +3702,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>68</v>
       </c>
@@ -3693,7 +3737,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>69</v>
       </c>
@@ -3716,7 +3760,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>70</v>
       </c>
@@ -3751,7 +3795,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>57</v>
       </c>
@@ -3786,7 +3830,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>71</v>
       </c>
@@ -3821,7 +3865,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>58</v>
       </c>
@@ -3856,7 +3900,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>72</v>
       </c>
@@ -3867,7 +3911,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>59</v>
       </c>
@@ -3902,7 +3946,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>73</v>
       </c>
@@ -3937,7 +3981,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>74</v>
       </c>
@@ -3972,7 +4016,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>75</v>
       </c>
@@ -4004,7 +4048,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>76</v>
       </c>
@@ -4024,7 +4068,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>53</v>
       </c>
@@ -4041,22 +4085,22 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="22" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="22" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>80</v>
       </c>
@@ -4091,7 +4135,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>79</v>
       </c>
@@ -4126,7 +4170,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>81</v>
       </c>
@@ -4161,7 +4205,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>82</v>
       </c>
@@ -4190,7 +4234,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>83</v>
       </c>
@@ -4225,7 +4269,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>84</v>
       </c>
@@ -4239,7 +4283,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>85</v>
       </c>
@@ -4274,7 +4318,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>86</v>
       </c>
@@ -4285,7 +4329,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>87</v>
       </c>
@@ -4317,7 +4361,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>88</v>
       </c>
@@ -4325,7 +4369,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>89</v>
       </c>
@@ -4348,7 +4392,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>90</v>
       </c>
@@ -4359,7 +4403,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>78</v>
       </c>
@@ -4373,65 +4417,65 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="124" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="23" t="s">
         <v>381</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="23"/>
     </row>
-    <row r="125" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="23" t="s">
         <v>382</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="23"/>
     </row>
-    <row r="126" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="23" t="s">
         <v>383</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="23"/>
     </row>
-    <row r="127" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="23" t="s">
         <v>384</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="23"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="129" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="130" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>385</v>
       </c>
@@ -4466,7 +4510,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>386</v>
       </c>
@@ -4501,7 +4545,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>387</v>
       </c>
@@ -4536,7 +4580,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>388</v>
       </c>
@@ -4571,7 +4615,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>389</v>
       </c>
@@ -4606,7 +4650,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>98</v>
       </c>
@@ -4614,7 +4658,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>99</v>
       </c>
@@ -4649,7 +4693,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>100</v>
       </c>
@@ -4678,7 +4722,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>101</v>
       </c>
@@ -4710,7 +4754,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>102</v>
       </c>
@@ -4739,7 +4783,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>103</v>
       </c>
@@ -4756,7 +4800,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>104</v>
       </c>
@@ -4764,7 +4808,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>105</v>
       </c>
@@ -4775,7 +4819,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>92</v>
       </c>
@@ -4786,62 +4830,62 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="148" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="24" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="149" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="24" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="24" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="151" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="24" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="152" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="24" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="24" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="154" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="24" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="155" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="24" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="11" t="s">
         <v>145</v>
       </c>
@@ -4876,7 +4920,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="11" t="s">
         <v>146</v>
       </c>
@@ -4899,7 +4943,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="11" t="s">
         <v>147</v>
       </c>
@@ -4932,7 +4976,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="11" t="s">
         <v>148</v>
       </c>
@@ -4967,7 +5011,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="11" t="s">
         <v>149</v>
       </c>
@@ -4984,7 +5028,7 @@
       <c r="J162" s="12"/>
       <c r="K162" s="12"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="11" t="s">
         <v>150</v>
       </c>
@@ -5019,7 +5063,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="11" t="s">
         <v>151</v>
       </c>
@@ -5046,7 +5090,7 @@
       <c r="J164" s="12"/>
       <c r="K164" s="12"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="11" t="s">
         <v>152</v>
       </c>
@@ -5081,7 +5125,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="11" t="s">
         <v>153</v>
       </c>
@@ -5108,7 +5152,7 @@
       <c r="J166" s="12"/>
       <c r="K166" s="12"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="13" t="s">
         <v>164</v>
       </c>
@@ -5143,7 +5187,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="13" t="s">
         <v>165</v>
       </c>
@@ -5168,7 +5212,7 @@
       <c r="J168" s="13"/>
       <c r="K168" s="13"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="13" t="s">
         <v>166</v>
       </c>
@@ -5193,7 +5237,7 @@
       <c r="J169" s="13"/>
       <c r="K169" s="13"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="13" t="s">
         <v>167</v>
       </c>
@@ -5212,7 +5256,7 @@
       <c r="J170" s="13"/>
       <c r="K170" s="13"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="13" t="s">
         <v>168</v>
       </c>
@@ -5231,12 +5275,12 @@
       <c r="J171" s="13"/>
       <c r="K171" s="13"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="173" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>170</v>
       </c>
@@ -5244,7 +5288,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>171</v>
       </c>
@@ -5264,7 +5308,7 @@
       <c r="K174" s="13"/>
       <c r="L174" s="13"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>172</v>
       </c>
@@ -5283,12 +5327,12 @@
       <c r="J175" s="13"/>
       <c r="K175" s="13"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="13" t="s">
         <v>174</v>
       </c>
@@ -5321,7 +5365,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="13" t="s">
         <v>175</v>
       </c>
@@ -5356,7 +5400,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="13" t="s">
         <v>176</v>
       </c>
@@ -5373,7 +5417,7 @@
       <c r="J179" s="13"/>
       <c r="K179" s="13"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="13" t="s">
         <v>177</v>
       </c>
@@ -5402,7 +5446,7 @@
       <c r="J180" s="13"/>
       <c r="K180" s="13"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="13" t="s">
         <v>178</v>
       </c>
@@ -5429,7 +5473,7 @@
       <c r="J181" s="13"/>
       <c r="K181" s="13"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="13" t="s">
         <v>179</v>
       </c>
@@ -5448,7 +5492,7 @@
       <c r="J182" s="13"/>
       <c r="K182" s="13"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>180</v>
       </c>
@@ -5464,7 +5508,7 @@
       <c r="K183" s="13"/>
       <c r="L183" s="13"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="13" t="s">
         <v>154</v>
       </c>
@@ -5500,12 +5544,12 @@
       </c>
       <c r="L184" s="13"/>
     </row>
-    <row r="185" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="34" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="13" t="s">
         <v>155</v>
       </c>
@@ -5541,7 +5585,7 @@
       </c>
       <c r="L186" s="13"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="13" t="s">
         <v>156</v>
       </c>
@@ -5577,7 +5621,7 @@
       </c>
       <c r="L187" s="13"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="13" t="s">
         <v>157</v>
       </c>
@@ -5613,7 +5657,7 @@
       </c>
       <c r="L188" s="13"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="13" t="s">
         <v>158</v>
       </c>
@@ -5649,7 +5693,7 @@
       </c>
       <c r="L189" s="13"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="13" t="s">
         <v>159</v>
       </c>
@@ -5685,7 +5729,7 @@
       </c>
       <c r="L190" s="13"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="13" t="s">
         <v>160</v>
       </c>
@@ -5721,7 +5765,7 @@
       </c>
       <c r="L191" s="13"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="13" t="s">
         <v>181</v>
       </c>
@@ -5756,7 +5800,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="13" t="s">
         <v>182</v>
       </c>
@@ -5789,7 +5833,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" s="13" t="s">
         <v>183</v>
       </c>
@@ -5824,7 +5868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" s="13" t="s">
         <v>184</v>
       </c>
@@ -5859,7 +5903,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" s="13" t="s">
         <v>161</v>
       </c>
@@ -5895,7 +5939,7 @@
       </c>
       <c r="L196" s="13"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" s="13" t="s">
         <v>162</v>
       </c>
@@ -5931,7 +5975,7 @@
       </c>
       <c r="L197" s="13"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" s="13" t="s">
         <v>163</v>
       </c>
@@ -5967,7 +6011,7 @@
       </c>
       <c r="L198" s="13"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
         <v>200</v>
       </c>
@@ -6003,7 +6047,7 @@
       </c>
       <c r="M199" s="14"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" s="14" t="s">
         <v>201</v>
       </c>
@@ -6039,7 +6083,7 @@
       </c>
       <c r="M200" s="14"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>202</v>
       </c>
@@ -6056,7 +6100,7 @@
       <c r="L201" s="14"/>
       <c r="M201" s="14"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" s="14" t="s">
         <v>185</v>
       </c>
@@ -6087,7 +6131,7 @@
       <c r="L202" s="14"/>
       <c r="M202" s="14"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" s="14" t="s">
         <v>186</v>
       </c>
@@ -6122,7 +6166,7 @@
       <c r="L203" s="14"/>
       <c r="M203" s="14"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" s="14" t="s">
         <v>187</v>
       </c>
@@ -6159,7 +6203,7 @@
       <c r="L204" s="14"/>
       <c r="M204" s="14"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" s="14" t="s">
         <v>188</v>
       </c>
@@ -6196,7 +6240,7 @@
       <c r="L205" s="14"/>
       <c r="M205" s="14"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
         <v>189</v>
       </c>
@@ -6233,7 +6277,7 @@
       <c r="L206" s="14"/>
       <c r="M206" s="14"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" s="14" t="s">
         <v>190</v>
       </c>
@@ -6270,7 +6314,7 @@
       <c r="L207" s="14"/>
       <c r="M207" s="14"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" s="14" t="s">
         <v>203</v>
       </c>
@@ -6298,7 +6342,7 @@
       <c r="K208" s="14"/>
       <c r="M208" s="14"/>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" s="14" t="s">
         <v>191</v>
       </c>
@@ -6335,7 +6379,7 @@
       <c r="L209" s="14"/>
       <c r="M209" s="14"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" s="14" t="s">
         <v>192</v>
       </c>
@@ -6372,7 +6416,7 @@
       <c r="L210" s="14"/>
       <c r="M210" s="14"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" s="14" t="s">
         <v>206</v>
       </c>
@@ -6408,7 +6452,7 @@
       </c>
       <c r="M211" s="14"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" s="14" t="s">
         <v>204</v>
       </c>
@@ -6442,7 +6486,7 @@
       </c>
       <c r="M212" s="14"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" s="14" t="s">
         <v>205</v>
       </c>
@@ -6476,7 +6520,7 @@
       </c>
       <c r="M213" s="14"/>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>207</v>
       </c>
@@ -6493,7 +6537,7 @@
       <c r="L214" s="14"/>
       <c r="M214" s="14"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" s="14" t="s">
         <v>208</v>
       </c>
@@ -6530,7 +6574,7 @@
       <c r="L215" s="14"/>
       <c r="N215" s="14"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" s="14" t="s">
         <v>209</v>
       </c>
@@ -6567,7 +6611,7 @@
       <c r="L216" s="14"/>
       <c r="N216" s="14"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" s="14" t="s">
         <v>210</v>
       </c>
@@ -6604,7 +6648,7 @@
       <c r="L217" s="14"/>
       <c r="N217" s="14"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" s="14" t="s">
         <v>211</v>
       </c>
@@ -6641,7 +6685,7 @@
       <c r="L218" s="14"/>
       <c r="N218" s="14"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
         <v>193</v>
       </c>
@@ -6679,7 +6723,7 @@
       <c r="M219" s="14"/>
       <c r="N219" s="14"/>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" s="14" t="s">
         <v>194</v>
       </c>
@@ -6717,7 +6761,7 @@
       <c r="M220" s="14"/>
       <c r="N220" s="14"/>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" s="14" t="s">
         <v>195</v>
       </c>
@@ -6755,7 +6799,7 @@
       <c r="M221" s="14"/>
       <c r="N221" s="14"/>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" s="14" t="s">
         <v>196</v>
       </c>
@@ -6785,7 +6829,7 @@
       <c r="M222" s="14"/>
       <c r="N222" s="14"/>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" s="14" t="s">
         <v>197</v>
       </c>
@@ -6823,7 +6867,7 @@
       <c r="M223" s="14"/>
       <c r="N223" s="14"/>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" s="14" t="s">
         <v>212</v>
       </c>
@@ -6860,7 +6904,7 @@
       <c r="L224" s="14"/>
       <c r="N224" s="14"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="14" t="s">
         <v>198</v>
       </c>
@@ -6896,7 +6940,7 @@
       <c r="M225" s="14"/>
       <c r="N225" s="14"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="14" t="s">
         <v>213</v>
       </c>
@@ -6931,7 +6975,7 @@
       <c r="L226" s="14"/>
       <c r="N226" s="14"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" s="14" t="s">
         <v>214</v>
       </c>
@@ -6952,7 +6996,7 @@
       <c r="L227" s="14"/>
       <c r="N227" s="14"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" s="14" t="s">
         <v>215</v>
       </c>
@@ -6986,7 +7030,7 @@
       </c>
       <c r="L228" s="14"/>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" s="14" t="s">
         <v>216</v>
       </c>
@@ -7018,7 +7062,7 @@
       </c>
       <c r="L229" s="14"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>217</v>
       </c>
@@ -7036,7 +7080,7 @@
       <c r="M230" s="14"/>
       <c r="N230" s="14"/>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" s="14" t="s">
         <v>218</v>
       </c>
@@ -7072,7 +7116,7 @@
       </c>
       <c r="L231" s="14"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" s="14" t="s">
         <v>219</v>
       </c>
@@ -7106,7 +7150,7 @@
       </c>
       <c r="L232" s="14"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" s="14" t="s">
         <v>220</v>
       </c>
@@ -7139,7 +7183,7 @@
       <c r="L233" s="14"/>
       <c r="M233" s="14"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="14" t="s">
         <v>221</v>
       </c>
@@ -7170,7 +7214,7 @@
       <c r="L234" s="14"/>
       <c r="M234" s="14"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="14" t="s">
         <v>222</v>
       </c>
@@ -7207,7 +7251,7 @@
       <c r="L235" s="14"/>
       <c r="M235" s="14"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="14" t="s">
         <v>199</v>
       </c>
@@ -7229,7 +7273,7 @@
       <c r="M236" s="14"/>
       <c r="N236" s="14"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="15" t="s">
         <v>223</v>
       </c>
@@ -7256,7 +7300,7 @@
       <c r="P237" s="15"/>
       <c r="Q237" s="15"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="15" t="s">
         <v>224</v>
       </c>
@@ -7279,7 +7323,7 @@
       <c r="P238" s="15"/>
       <c r="Q238" s="15"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
         <v>251</v>
       </c>
@@ -7300,42 +7344,42 @@
       <c r="P239" s="15"/>
       <c r="Q239" s="15"/>
     </row>
-    <row r="240" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="25" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="241" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="25" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="242" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="25" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="243" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="25" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="244" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="25" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="245" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="25" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="246" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="25" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="15" t="s">
         <v>225</v>
       </c>
@@ -7372,7 +7416,7 @@
       <c r="P247" s="15"/>
       <c r="Q247" s="15"/>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" s="15" t="s">
         <v>226</v>
       </c>
@@ -7413,12 +7457,12 @@
       <c r="P248" s="15"/>
       <c r="Q248" s="15"/>
     </row>
-    <row r="249" spans="1:17" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="26" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="15" t="s">
         <v>227</v>
       </c>
@@ -7457,7 +7501,7 @@
       <c r="P250" s="15"/>
       <c r="Q250" s="15"/>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="15" t="s">
         <v>228</v>
       </c>
@@ -7496,7 +7540,7 @@
       <c r="P251" s="15"/>
       <c r="Q251" s="15"/>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="15" t="s">
         <v>229</v>
       </c>
@@ -7537,12 +7581,12 @@
       <c r="P252" s="15"/>
       <c r="Q252" s="15"/>
     </row>
-    <row r="253" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="27" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" s="15" t="s">
         <v>230</v>
       </c>
@@ -7581,7 +7625,7 @@
       <c r="P254" s="15"/>
       <c r="Q254" s="15"/>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" s="15" t="s">
         <v>231</v>
       </c>
@@ -7614,7 +7658,7 @@
       <c r="P255" s="15"/>
       <c r="Q255" s="15"/>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" s="15" t="s">
         <v>232</v>
       </c>
@@ -7651,7 +7695,7 @@
       <c r="P256" s="15"/>
       <c r="Q256" s="15"/>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" s="15" t="s">
         <v>252</v>
       </c>
@@ -7685,7 +7729,7 @@
       </c>
       <c r="L257" s="15"/>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" s="15" t="s">
         <v>233</v>
       </c>
@@ -7724,7 +7768,7 @@
       <c r="P258" s="15"/>
       <c r="Q258" s="15"/>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" s="15" t="s">
         <v>234</v>
       </c>
@@ -7765,7 +7809,7 @@
       <c r="P259" s="15"/>
       <c r="Q259" s="15"/>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" s="15" t="s">
         <v>235</v>
       </c>
@@ -7804,12 +7848,12 @@
       <c r="P260" s="15"/>
       <c r="Q260" s="15"/>
     </row>
-    <row r="261" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="28" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" s="15" t="s">
         <v>253</v>
       </c>
@@ -7847,7 +7891,7 @@
       <c r="M262" s="15"/>
       <c r="N262" s="15"/>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" s="15" t="s">
         <v>236</v>
       </c>
@@ -7872,12 +7916,12 @@
       <c r="N263" s="15"/>
       <c r="O263" s="15"/>
     </row>
-    <row r="264" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="29" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" s="15" t="s">
         <v>237</v>
       </c>
@@ -7916,7 +7960,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="15"/>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" s="15" t="s">
         <v>238</v>
       </c>
@@ -7955,7 +7999,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="15"/>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" s="15" t="s">
         <v>239</v>
       </c>
@@ -7994,7 +8038,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="15"/>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="15" t="s">
         <v>240</v>
       </c>
@@ -8033,7 +8077,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="15"/>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="15" t="s">
         <v>254</v>
       </c>
@@ -8069,7 +8113,7 @@
       </c>
       <c r="L269" s="15"/>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" s="15" t="s">
         <v>255</v>
       </c>
@@ -8105,7 +8149,7 @@
       </c>
       <c r="L270" s="15"/>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" s="15" t="s">
         <v>241</v>
       </c>
@@ -8144,7 +8188,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="15"/>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" s="15" t="s">
         <v>242</v>
       </c>
@@ -8183,7 +8227,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="15"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="15" t="s">
         <v>243</v>
       </c>
@@ -8222,7 +8266,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="15"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="15" t="s">
         <v>244</v>
       </c>
@@ -8261,7 +8305,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="15"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="15" t="s">
         <v>245</v>
       </c>
@@ -8300,7 +8344,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="15"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="15" t="s">
         <v>246</v>
       </c>
@@ -8339,7 +8383,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="15"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="15" t="s">
         <v>247</v>
       </c>
@@ -8378,7 +8422,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="15"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="15" t="s">
         <v>248</v>
       </c>
@@ -8417,7 +8461,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="15"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="15" t="s">
         <v>249</v>
       </c>
@@ -8456,7 +8500,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="15"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="15" t="s">
         <v>250</v>
       </c>
@@ -8492,7 +8536,7 @@
       </c>
       <c r="L280" s="15"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="16" t="s">
         <v>256</v>
       </c>
@@ -8528,12 +8572,12 @@
       </c>
       <c r="L281" s="16"/>
     </row>
-    <row r="282" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="29" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="16" t="s">
         <v>257</v>
       </c>
@@ -8569,12 +8613,12 @@
       </c>
       <c r="L283" s="16"/>
     </row>
-    <row r="284" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="30" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>258</v>
       </c>
@@ -8590,7 +8634,7 @@
       <c r="K285" s="16"/>
       <c r="L285" s="16"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="16" t="s">
         <v>259</v>
       </c>
@@ -8626,7 +8670,7 @@
       </c>
       <c r="L286" s="16"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="16" t="s">
         <v>260</v>
       </c>
@@ -8662,7 +8706,7 @@
       </c>
       <c r="L287" s="16"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="16" t="s">
         <v>261</v>
       </c>
@@ -8698,7 +8742,7 @@
       </c>
       <c r="L288" s="16"/>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="16" t="s">
         <v>262</v>
       </c>
@@ -8734,7 +8778,7 @@
       </c>
       <c r="L289" s="16"/>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" s="16" t="s">
         <v>263</v>
       </c>
@@ -8768,7 +8812,7 @@
       </c>
       <c r="L290" s="16"/>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="16" t="s">
         <v>264</v>
       </c>
@@ -8802,7 +8846,7 @@
       </c>
       <c r="L291" s="16"/>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" s="16" t="s">
         <v>265</v>
       </c>
@@ -8838,7 +8882,7 @@
       </c>
       <c r="L292" s="16"/>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" s="16" t="s">
         <v>266</v>
       </c>
@@ -8874,7 +8918,7 @@
       </c>
       <c r="L293" s="16"/>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" s="16" t="s">
         <v>267</v>
       </c>
@@ -8910,7 +8954,7 @@
       </c>
       <c r="L294" s="16"/>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" s="16" t="s">
         <v>268</v>
       </c>
@@ -8946,97 +8990,97 @@
       </c>
       <c r="L295" s="16"/>
     </row>
-    <row r="296" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="297" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="31" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="298" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="31" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="299" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="31" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="300" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="31" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="301" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="33" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="302" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="32" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="303" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="32" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="304" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="32" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="305" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="32" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="306" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="32" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="307" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="308" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="32" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="309" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="32" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="310" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="35" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="311" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="34" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="312" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="34" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="313" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="34" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" s="10" t="s">
         <v>282</v>
       </c>
@@ -9052,7 +9096,7 @@
       <c r="K314" s="16"/>
       <c r="L314" s="16"/>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" s="16" t="s">
         <v>269</v>
       </c>
@@ -9084,7 +9128,7 @@
       </c>
       <c r="L315" s="16"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" s="16" t="s">
         <v>270</v>
       </c>
@@ -9118,7 +9162,7 @@
       <c r="K316" s="16"/>
       <c r="L316" s="16"/>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" s="16" t="s">
         <v>271</v>
       </c>
@@ -9155,7 +9199,7 @@
       <c r="L317" s="16"/>
       <c r="M317" s="16"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" s="16" t="s">
         <v>272</v>
       </c>
@@ -9192,7 +9236,7 @@
       <c r="L318" s="16"/>
       <c r="M318" s="16"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" s="16" t="s">
         <v>273</v>
       </c>
@@ -9215,7 +9259,7 @@
       <c r="L319" s="16"/>
       <c r="M319" s="16"/>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" s="5" t="s">
         <v>283</v>
       </c>
@@ -9232,7 +9276,7 @@
       <c r="L320" s="16"/>
       <c r="M320" s="16"/>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" s="16" t="s">
         <v>274</v>
       </c>
@@ -9269,7 +9313,7 @@
       <c r="L321" s="16"/>
       <c r="M321" s="16"/>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" s="16" t="s">
         <v>275</v>
       </c>
@@ -9288,7 +9332,7 @@
       <c r="L322" s="16"/>
       <c r="M322" s="16"/>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" s="16" t="s">
         <v>284</v>
       </c>
@@ -9310,7 +9354,7 @@
       <c r="K323" s="16"/>
       <c r="L323" s="16"/>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" s="16" t="s">
         <v>285</v>
       </c>
@@ -9328,7 +9372,7 @@
       </c>
       <c r="L324" s="16"/>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" s="16" t="s">
         <v>276</v>
       </c>
@@ -9359,7 +9403,7 @@
       <c r="L325" s="16"/>
       <c r="M325" s="16"/>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" s="5" t="s">
         <v>277</v>
       </c>
@@ -9376,7 +9420,7 @@
       <c r="L326" s="16"/>
       <c r="M326" s="16"/>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" s="16" t="s">
         <v>278</v>
       </c>
@@ -9413,7 +9457,7 @@
       <c r="L327" s="16"/>
       <c r="M327" s="16"/>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" s="16" t="s">
         <v>279</v>
       </c>
@@ -9450,7 +9494,7 @@
       <c r="L328" s="16"/>
       <c r="M328" s="16"/>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329" s="16" t="s">
         <v>280</v>
       </c>
@@ -9487,7 +9531,7 @@
       <c r="L329" s="16"/>
       <c r="M329" s="16"/>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330" s="16" t="s">
         <v>281</v>
       </c>
@@ -9522,7 +9566,7 @@
       <c r="L330" s="16"/>
       <c r="M330" s="16"/>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331" s="5" t="s">
         <v>286</v>
       </c>
@@ -9539,7 +9583,7 @@
       <c r="L331" s="16"/>
       <c r="M331" s="16"/>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332" s="16" t="s">
         <v>287</v>
       </c>
@@ -9563,7 +9607,7 @@
       </c>
       <c r="L332" s="16"/>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333" s="16" t="s">
         <v>288</v>
       </c>
@@ -9587,7 +9631,7 @@
       </c>
       <c r="L333" s="16"/>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334" s="16" t="s">
         <v>289</v>
       </c>
@@ -9609,7 +9653,7 @@
       </c>
       <c r="L334" s="16"/>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335" s="16" t="s">
         <v>292</v>
       </c>
@@ -9633,12 +9677,12 @@
       </c>
       <c r="L335" s="16"/>
     </row>
-    <row r="336" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="30" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337" s="16" t="s">
         <v>290</v>
       </c>
@@ -9660,7 +9704,7 @@
       </c>
       <c r="L337" s="16"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" s="16" t="s">
         <v>291</v>
       </c>
@@ -9684,7 +9728,7 @@
       </c>
       <c r="L338" s="16"/>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" s="17" t="s">
         <v>301</v>
       </c>
@@ -9708,7 +9752,7 @@
       </c>
       <c r="L339" s="17"/>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" s="17" t="s">
         <v>302</v>
       </c>
@@ -9732,7 +9776,7 @@
       </c>
       <c r="L340" s="17"/>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" s="17" t="s">
         <v>303</v>
       </c>
@@ -9756,7 +9800,7 @@
       </c>
       <c r="L341" s="17"/>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342" s="17" t="s">
         <v>304</v>
       </c>
@@ -9780,7 +9824,7 @@
       </c>
       <c r="L342" s="17"/>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" s="17" t="s">
         <v>305</v>
       </c>
@@ -9804,7 +9848,7 @@
       </c>
       <c r="L343" s="17"/>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" s="17" t="s">
         <v>306</v>
       </c>
@@ -9828,7 +9872,7 @@
       </c>
       <c r="L344" s="17"/>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345" s="17" t="s">
         <v>307</v>
       </c>
@@ -9852,7 +9896,7 @@
       </c>
       <c r="L345" s="17"/>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346" s="17" t="s">
         <v>308</v>
       </c>
@@ -9876,7 +9920,7 @@
       </c>
       <c r="L346" s="17"/>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347" s="17" t="s">
         <v>309</v>
       </c>
@@ -9900,7 +9944,7 @@
       </c>
       <c r="L347" s="17"/>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" s="17" t="s">
         <v>310</v>
       </c>
@@ -9922,7 +9966,7 @@
       </c>
       <c r="L348" s="17"/>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" s="17" t="s">
         <v>311</v>
       </c>
@@ -9946,7 +9990,7 @@
       </c>
       <c r="L349" s="17"/>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350" s="5" t="s">
         <v>312</v>
       </c>
@@ -9963,7 +10007,7 @@
       <c r="L350" s="17"/>
       <c r="M350" s="17"/>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351" s="17" t="s">
         <v>293</v>
       </c>
@@ -9984,7 +10028,7 @@
       <c r="L351" s="17"/>
       <c r="M351" s="17"/>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352" s="17" t="s">
         <v>294</v>
       </c>
@@ -10009,7 +10053,7 @@
       <c r="L352" s="17"/>
       <c r="M352" s="17"/>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353" s="17" t="s">
         <v>295</v>
       </c>
@@ -10034,7 +10078,7 @@
       <c r="L353" s="17"/>
       <c r="M353" s="17"/>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354" s="17" t="s">
         <v>296</v>
       </c>
@@ -10059,7 +10103,7 @@
       <c r="L354" s="17"/>
       <c r="M354" s="17"/>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355" s="17" t="s">
         <v>297</v>
       </c>
@@ -10084,7 +10128,7 @@
       <c r="L355" s="17"/>
       <c r="M355" s="17"/>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356" s="17" t="s">
         <v>298</v>
       </c>
@@ -10109,7 +10153,7 @@
       <c r="L356" s="17"/>
       <c r="M356" s="17"/>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" s="17" t="s">
         <v>313</v>
       </c>
@@ -10131,7 +10175,7 @@
       </c>
       <c r="L357" s="17"/>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358" s="17" t="s">
         <v>299</v>
       </c>
@@ -10154,7 +10198,7 @@
       <c r="L358" s="17"/>
       <c r="M358" s="17"/>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359" s="17" t="s">
         <v>314</v>
       </c>
@@ -10176,7 +10220,7 @@
       </c>
       <c r="L359" s="17"/>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360" s="17" t="s">
         <v>315</v>
       </c>
@@ -10198,7 +10242,7 @@
       </c>
       <c r="L360" s="17"/>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A361" s="17" t="s">
         <v>316</v>
       </c>
@@ -10220,7 +10264,7 @@
       </c>
       <c r="L361" s="17"/>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A362" s="17" t="s">
         <v>300</v>
       </c>
@@ -10245,7 +10289,7 @@
       <c r="L362" s="17"/>
       <c r="M362" s="17"/>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" s="17" t="s">
         <v>317</v>
       </c>
@@ -10267,7 +10311,7 @@
       </c>
       <c r="L363" s="17"/>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364" s="17" t="s">
         <v>318</v>
       </c>
@@ -10291,7 +10335,7 @@
       </c>
       <c r="L364" s="17"/>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365" s="18" t="s">
         <v>334</v>
       </c>
@@ -10313,7 +10357,7 @@
       </c>
       <c r="L365" s="18"/>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366" s="18" t="s">
         <v>335</v>
       </c>
@@ -10333,7 +10377,7 @@
       </c>
       <c r="L366" s="18"/>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A367" s="18" t="s">
         <v>336</v>
       </c>
@@ -10357,7 +10401,7 @@
       </c>
       <c r="L367" s="18"/>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368" s="18" t="s">
         <v>337</v>
       </c>
@@ -10379,7 +10423,7 @@
       </c>
       <c r="L368" s="18"/>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A369" s="5" t="s">
         <v>436</v>
       </c>
@@ -10396,27 +10440,27 @@
       <c r="L369" s="18"/>
       <c r="M369" s="18"/>
     </row>
-    <row r="370" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A370" s="7" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="371" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A371" s="7" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="372" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A372" s="7" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="373" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" s="7" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A374" s="18" t="s">
         <v>319</v>
       </c>
@@ -10447,7 +10491,7 @@
       <c r="L374" s="18"/>
       <c r="M374" s="18"/>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A375" s="18" t="s">
         <v>320</v>
       </c>
@@ -10484,7 +10528,7 @@
       <c r="L375" s="18"/>
       <c r="M375" s="18"/>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A376" s="18" t="s">
         <v>338</v>
       </c>
@@ -10520,7 +10564,7 @@
       </c>
       <c r="L376" s="18"/>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A377" s="18" t="s">
         <v>321</v>
       </c>
@@ -10557,7 +10601,7 @@
       <c r="L377" s="18"/>
       <c r="M377" s="18"/>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A378" s="18" t="s">
         <v>322</v>
       </c>
@@ -10594,7 +10638,7 @@
       <c r="L378" s="18"/>
       <c r="M378" s="18"/>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A379" s="18" t="s">
         <v>323</v>
       </c>
@@ -10629,7 +10673,7 @@
       <c r="L379" s="18"/>
       <c r="M379" s="18"/>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A380" s="18" t="s">
         <v>324</v>
       </c>
@@ -10666,12 +10710,12 @@
       <c r="L380" s="18"/>
       <c r="M380" s="18"/>
     </row>
-    <row r="381" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A381" s="34" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A382" s="5" t="s">
         <v>325</v>
       </c>
@@ -10688,7 +10732,7 @@
       <c r="L382" s="18"/>
       <c r="M382" s="18"/>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383" s="18" t="s">
         <v>326</v>
       </c>
@@ -10707,7 +10751,7 @@
       <c r="L383" s="18"/>
       <c r="M383" s="18"/>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A384" s="18" t="s">
         <v>327</v>
       </c>
@@ -10730,7 +10774,7 @@
       <c r="L384" s="18"/>
       <c r="M384" s="18"/>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385" s="18" t="s">
         <v>328</v>
       </c>
@@ -10753,7 +10797,7 @@
       <c r="L385" s="18"/>
       <c r="M385" s="18"/>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386" s="18" t="s">
         <v>329</v>
       </c>
@@ -10777,7 +10821,7 @@
       <c r="M386" s="18"/>
       <c r="N386" s="18"/>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387" s="18" t="s">
         <v>330</v>
       </c>
@@ -10801,7 +10845,7 @@
       <c r="M387" s="18"/>
       <c r="N387" s="18"/>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388" s="5" t="s">
         <v>339</v>
       </c>
@@ -10819,7 +10863,7 @@
       <c r="M388" s="18"/>
       <c r="N388" s="18"/>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389" s="18" t="s">
         <v>331</v>
       </c>
@@ -10857,7 +10901,7 @@
       <c r="M389" s="18"/>
       <c r="N389" s="18"/>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390" s="18" t="s">
         <v>340</v>
       </c>
@@ -10894,7 +10938,7 @@
       <c r="L390" s="18"/>
       <c r="M390" s="18"/>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391" s="18" t="s">
         <v>332</v>
       </c>
@@ -10932,7 +10976,7 @@
       <c r="M391" s="18"/>
       <c r="N391" s="18"/>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A392" s="18" t="s">
         <v>341</v>
       </c>
@@ -10962,7 +11006,7 @@
       <c r="K392" s="18"/>
       <c r="L392" s="18"/>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A393" s="18" t="s">
         <v>333</v>
       </c>
@@ -10984,7 +11028,7 @@
       <c r="M393" s="18"/>
       <c r="N393" s="18"/>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A394" s="36" t="s">
         <v>442</v>
       </c>
@@ -11002,32 +11046,32 @@
       <c r="M394" s="18"/>
       <c r="N394" s="18"/>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A395" s="36" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A396" s="36" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A397" s="36" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A398" s="36" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A399" s="36" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A400" s="36" t="s">
         <v>448</v>
       </c>
@@ -11039,19 +11083,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -11089,7 +11134,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -11127,7 +11172,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -11165,7 +11210,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -11203,7 +11248,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -11241,7 +11286,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -11261,7 +11306,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -11299,7 +11344,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -11334,7 +11379,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -11369,7 +11414,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -11404,7 +11449,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -11430,7 +11475,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -11450,7 +11495,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -11473,7 +11518,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -11499,18 +11544,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
     <col min="4" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="4" bestFit="1" customWidth="1"/>
@@ -11520,7 +11566,7 @@
     <col min="19" max="19" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>5.8000000000000003E-2</v>
       </c>
